--- a/sputnik/personal/ee/180ee.xlsx
+++ b/sputnik/personal/ee/180ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>Т1</t>
   </si>
@@ -24,18 +24,12 @@
     <t>Т2</t>
   </si>
   <si>
-    <t>День/ночь</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
     <t xml:space="preserve">Тариф </t>
   </si>
   <si>
-    <t>Сумма оплаты</t>
-  </si>
-  <si>
     <t>Дата оплаты</t>
   </si>
   <si>
@@ -48,13 +42,31 @@
     <t>Начислены пени с 06.10.2018 по 29.12.2018 -82 дн. ( 6610,50 х 42 х0,1%=277,64)</t>
   </si>
   <si>
-    <t>Доплатить 60,00.   Начислены пени с 29.12.2018  по 17.05.2019 -138 дн. ( 8085,55 х 98 х0,1%=792,38)</t>
-  </si>
-  <si>
-    <t>нет данных</t>
-  </si>
-  <si>
     <t>Начислены пени с 17.05.2019 по 16.09.2019 -121 дн. ( 6053,18 х 81 х0,1%=490,31)</t>
+  </si>
+  <si>
+    <t>День/ ночь</t>
+  </si>
+  <si>
+    <t>Начислено по представленым показаниям и действующему тарифу</t>
+  </si>
+  <si>
+    <t>всего начислено к оплате</t>
+  </si>
+  <si>
+    <t>оплачено</t>
+  </si>
+  <si>
+    <t>Начислены пени с 29.12.2018  по 17.05.2019 -138 дн. ( 8085,55 х 98 х0,1%=792,38)</t>
+  </si>
+  <si>
+    <t>итого за период</t>
+  </si>
+  <si>
+    <t>итого с пенями</t>
+  </si>
+  <si>
+    <t>к доплате</t>
   </si>
 </sst>
 </file>
@@ -62,7 +74,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -125,7 +137,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -152,21 +164,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -204,7 +201,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -217,7 +214,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -227,34 +224,31 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -562,414 +556,333 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18:C19"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
     <col min="10" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>8</v>
-      </c>
       <c r="E1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>43204</v>
+        <v>43463</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5">
-        <v>25694</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
+      <c r="C2" s="3">
+        <v>28862</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+    </row>
+    <row r="3" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5">
-        <v>10305</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-    </row>
-    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="3">
+        <v>11631</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>43274</v>
+        <v>43602</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="3">
-        <v>26458</v>
+        <v>30261</v>
       </c>
       <c r="D4" s="3">
-        <f t="shared" ref="D4:D9" si="0">C4-C2</f>
-        <v>764</v>
-      </c>
-      <c r="E4" s="3">
-        <v>4.5</v>
+        <f>C4-C2</f>
+        <v>1399</v>
+      </c>
+      <c r="E4" s="8">
+        <v>4.57</v>
       </c>
       <c r="F4" s="6">
-        <f t="shared" ref="F4:F9" si="1">D4*E4</f>
-        <v>3438</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <f>D4*E4</f>
+        <v>6393.43</v>
+      </c>
+      <c r="G4" s="18">
+        <f>SUM(F4,F5)</f>
+        <v>8085.55</v>
+      </c>
+      <c r="H4" s="18">
+        <v>8025.55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="3">
-        <v>10640</v>
+        <v>12339</v>
       </c>
       <c r="D5" s="3">
-        <f t="shared" si="0"/>
-        <v>335</v>
+        <f>C5-C3</f>
+        <v>708</v>
       </c>
       <c r="E5" s="3">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="F5" s="6">
-        <f t="shared" si="1"/>
-        <v>787.25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <f>D5*E5</f>
+        <v>1692.1200000000001</v>
+      </c>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>43379</v>
+        <v>43724</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="3">
-        <v>27628</v>
-      </c>
-      <c r="D6" s="3">
-        <f t="shared" si="0"/>
-        <v>1170</v>
-      </c>
-      <c r="E6" s="3">
-        <v>4.5</v>
+      <c r="C6" s="11">
+        <v>0</v>
+      </c>
+      <c r="D6" s="11">
+        <v>0</v>
+      </c>
+      <c r="E6" s="8">
+        <v>4.49</v>
       </c>
       <c r="F6" s="6">
-        <f t="shared" si="1"/>
-        <v>5265</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6053.18</v>
+      </c>
+      <c r="G6" s="18">
+        <f>SUM(F6,F7)</f>
+        <v>6053.18</v>
+      </c>
+      <c r="H6" s="18">
+        <v>6053.18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="3">
-        <v>11181</v>
-      </c>
-      <c r="D7" s="3">
-        <f t="shared" si="0"/>
-        <v>541</v>
+      <c r="C7" s="11">
+        <v>0</v>
+      </c>
+      <c r="D7" s="11">
+        <v>0</v>
       </c>
       <c r="E7" s="3">
-        <v>2.35</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="F7" s="6">
-        <f t="shared" si="1"/>
-        <v>1271.3500000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <f>D7*E7</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>43463</v>
+        <v>43801</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="3">
-        <v>28862</v>
-      </c>
-      <c r="D8" s="3">
-        <f t="shared" si="0"/>
-        <v>1234</v>
+      <c r="C8" s="11">
+        <v>0</v>
+      </c>
+      <c r="D8" s="11">
+        <v>0</v>
       </c>
       <c r="E8" s="8">
-        <v>4.5</v>
+        <v>4.49</v>
       </c>
       <c r="F8" s="6">
-        <f t="shared" si="1"/>
-        <v>5553</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3907.87</v>
+      </c>
+      <c r="G8" s="18">
+        <f>SUM(F8,F9)</f>
+        <v>3907.87</v>
+      </c>
+      <c r="H8" s="18">
+        <v>3907.87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="3">
-        <v>11631</v>
-      </c>
-      <c r="D9" s="3">
-        <f t="shared" si="0"/>
-        <v>450</v>
+      <c r="C9" s="11">
+        <v>0</v>
+      </c>
+      <c r="D9" s="11">
+        <v>0</v>
       </c>
       <c r="E9" s="3">
-        <v>2.35</v>
-      </c>
-      <c r="F9" s="6">
-        <f t="shared" si="1"/>
-        <v>1057.5</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>3</v>
-      </c>
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>43463</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="16"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="18">
+        <f>SUM(G4:G9)</f>
+        <v>18046.599999999999</v>
+      </c>
+      <c r="H10" s="18">
+        <f>SUM(H4:H9)</f>
+        <v>17986.599999999999</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
+        <v>43463</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="18">
+        <v>277.64</v>
+      </c>
+      <c r="H11" s="18"/>
+    </row>
+    <row r="12" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
         <v>43602</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="3">
-        <v>30261</v>
-      </c>
-      <c r="D11" s="3">
-        <f>C11-C8</f>
-        <v>1399</v>
-      </c>
-      <c r="E11" s="8">
-        <v>4.57</v>
-      </c>
-      <c r="F11" s="6">
-        <f>D11*E11</f>
-        <v>6393.43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="3">
-        <v>12339</v>
-      </c>
-      <c r="D12" s="3">
-        <f>C12-C9</f>
-        <v>708</v>
-      </c>
-      <c r="E12" s="3">
-        <v>2.39</v>
-      </c>
-      <c r="F12" s="6">
-        <f>D12*E12</f>
-        <v>1692.1200000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="18">
+        <v>792.38</v>
+      </c>
+      <c r="H12" s="18"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
-        <v>43602</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="19"/>
+        <v>43724</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="18">
+        <v>490.31</v>
+      </c>
+      <c r="H13" s="18"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>43724</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="8">
-        <v>4.49</v>
-      </c>
-      <c r="F14" s="6">
-        <v>6053.18</v>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="18">
+        <f>SUM(G10:G13)</f>
+        <v>19606.93</v>
+      </c>
+      <c r="H14" s="18">
+        <f>SUM(H10:H13)</f>
+        <v>17986.599999999999</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F15" s="6">
-        <f>D15*E15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
-        <v>43724</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="16"/>
-    </row>
-    <row r="17" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="10"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="16"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
-        <v>43801</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="8">
-        <v>4.49</v>
-      </c>
-      <c r="F18" s="6">
-        <v>3907.87</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="3">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F19" s="6" t="e">
-        <f>D19*E19</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="6"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="6"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18">
+        <f>SUM(H14,-G14)</f>
+        <v>-1620.3300000000017</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B10:F10"/>
+  <mergeCells count="3">
+    <mergeCell ref="B12:F12"/>
     <mergeCell ref="B13:F13"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B11:F11"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/sputnik/personal/ee/180ee.xlsx
+++ b/sputnik/personal/ee/180ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
   <si>
     <t>Т1</t>
   </si>
@@ -58,9 +58,6 @@
   </si>
   <si>
     <t>Начислены пени с 29.12.2018  по 17.05.2019 -138 дн. ( 8085,55 х 98 х0,1%=792,38)</t>
-  </si>
-  <si>
-    <t>итого за период</t>
   </si>
   <si>
     <t>итого с пенями</t>
@@ -76,7 +73,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,14 +91,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
       <color indexed="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -128,6 +117,27 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -137,7 +147,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -160,48 +170,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -223,32 +196,31 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -556,10 +528,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -616,8 +588,8 @@
       <c r="D2" s="3"/>
       <c r="E2" s="8"/>
       <c r="F2" s="6"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
@@ -630,8 +602,8 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="6"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18" t="s">
+      <c r="G3" s="10"/>
+      <c r="H3" s="10" t="s">
         <v>2</v>
       </c>
     </row>
@@ -656,11 +628,11 @@
         <f>D4*E4</f>
         <v>6393.43</v>
       </c>
-      <c r="G4" s="18">
+      <c r="G4" s="10">
         <f>SUM(F4,F5)</f>
         <v>8085.55</v>
       </c>
-      <c r="H4" s="18">
+      <c r="H4" s="10">
         <v>8025.55</v>
       </c>
     </row>
@@ -683,8 +655,8 @@
         <f>D5*E5</f>
         <v>1692.1200000000001</v>
       </c>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -693,10 +665,10 @@
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="11">
-        <v>0</v>
-      </c>
-      <c r="D6" s="11">
+      <c r="C6" s="9">
+        <v>0</v>
+      </c>
+      <c r="D6" s="9">
         <v>0</v>
       </c>
       <c r="E6" s="8">
@@ -705,11 +677,11 @@
       <c r="F6" s="6">
         <v>6053.18</v>
       </c>
-      <c r="G6" s="18">
+      <c r="G6" s="10">
         <f>SUM(F6,F7)</f>
         <v>6053.18</v>
       </c>
-      <c r="H6" s="18">
+      <c r="H6" s="10">
         <v>6053.18</v>
       </c>
     </row>
@@ -718,10 +690,10 @@
       <c r="B7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="11">
-        <v>0</v>
-      </c>
-      <c r="D7" s="11">
+      <c r="C7" s="9">
+        <v>0</v>
+      </c>
+      <c r="D7" s="9">
         <v>0</v>
       </c>
       <c r="E7" s="3">
@@ -731,8 +703,8 @@
         <f>D7*E7</f>
         <v>0</v>
       </c>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -741,10 +713,10 @@
       <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="11">
-        <v>0</v>
-      </c>
-      <c r="D8" s="11">
+      <c r="C8" s="9">
+        <v>0</v>
+      </c>
+      <c r="D8" s="9">
         <v>0</v>
       </c>
       <c r="E8" s="8">
@@ -753,11 +725,11 @@
       <c r="F8" s="6">
         <v>3907.87</v>
       </c>
-      <c r="G8" s="18">
+      <c r="G8" s="10">
         <f>SUM(F8,F9)</f>
         <v>3907.87</v>
       </c>
-      <c r="H8" s="18">
+      <c r="H8" s="10">
         <v>3907.87</v>
       </c>
     </row>
@@ -766,84 +738,108 @@
       <c r="B9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="11">
-        <v>0</v>
-      </c>
-      <c r="D9" s="11">
+      <c r="C9" s="9">
+        <v>0</v>
+      </c>
+      <c r="D9" s="9">
         <v>0</v>
       </c>
       <c r="E9" s="3">
         <v>2.4300000000000002</v>
       </c>
       <c r="F9" s="6"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="6" t="s">
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>43463</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="12">
+        <v>0</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="12">
+        <v>0</v>
+      </c>
+      <c r="F10" s="14">
+        <v>277.64</v>
+      </c>
+      <c r="G10" s="6">
+        <v>277.64</v>
+      </c>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>43602</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="12">
+        <v>0</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="15">
+        <v>0</v>
+      </c>
+      <c r="F11" s="16">
+        <v>792.38</v>
+      </c>
+      <c r="G11" s="6">
+        <v>792.38</v>
+      </c>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:8" ht="48" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>43724</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="12">
+        <v>0</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="12">
+        <v>0</v>
+      </c>
+      <c r="F12" s="14">
+        <v>490.31</v>
+      </c>
+      <c r="G12" s="6">
+        <v>490.31</v>
+      </c>
+      <c r="H12" s="10"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="18">
-        <f>SUM(G4:G9)</f>
-        <v>18046.599999999999</v>
-      </c>
-      <c r="H10" s="18">
-        <f>SUM(H4:H9)</f>
+      <c r="G13" s="10">
+        <f>SUM(G2:G12)</f>
+        <v>19606.93</v>
+      </c>
+      <c r="H13" s="10">
+        <f>SUM(H2:H12)</f>
         <v>17986.599999999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>43463</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="18">
-        <v>277.64</v>
-      </c>
-      <c r="H11" s="18"/>
-    </row>
-    <row r="12" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>43602</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="18">
-        <v>792.38</v>
-      </c>
-      <c r="H12" s="18"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>43724</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="18">
-        <v>490.31</v>
-      </c>
-      <c r="H13" s="18"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
@@ -854,36 +850,13 @@
       <c r="F14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="18">
-        <f>SUM(G10:G13)</f>
-        <v>19606.93</v>
-      </c>
-      <c r="H14" s="18">
-        <f>SUM(H10:H13)</f>
-        <v>17986.599999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18">
-        <f>SUM(H14,-G14)</f>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10">
+        <f>SUM(H13,-G13)</f>
         <v>-1620.3300000000017</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="B11:F11"/>
-  </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>

--- a/sputnik/personal/ee/180ee.xlsx
+++ b/sputnik/personal/ee/180ee.xlsx
@@ -530,8 +530,8 @@
   </sheetPr>
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26:J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -597,7 +597,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="3">
-        <v>11631</v>
+        <v>11831</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -625,7 +625,7 @@
         <v>4.57</v>
       </c>
       <c r="F4" s="6">
-        <f>D4*E4</f>
+        <f>PRODUCT(D4,E4)</f>
         <v>6393.43</v>
       </c>
       <c r="G4" s="10">
@@ -642,7 +642,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="3">
-        <v>12339</v>
+        <v>12539</v>
       </c>
       <c r="D5" s="3">
         <f>C5-C3</f>
@@ -666,20 +666,22 @@
         <v>0</v>
       </c>
       <c r="C6" s="9">
-        <v>0</v>
+        <v>31391</v>
       </c>
       <c r="D6" s="9">
-        <v>0</v>
+        <f>SUM(C6,-C4)</f>
+        <v>1130</v>
       </c>
       <c r="E6" s="8">
         <v>4.49</v>
       </c>
       <c r="F6" s="6">
-        <v>6053.18</v>
+        <f>PRODUCT(L25+D6,E6)</f>
+        <v>5073.7</v>
       </c>
       <c r="G6" s="10">
         <f>SUM(F6,F7)</f>
-        <v>6053.18</v>
+        <v>5977.66</v>
       </c>
       <c r="H6" s="10">
         <v>6053.18</v>
@@ -691,17 +693,18 @@
         <v>1</v>
       </c>
       <c r="C7" s="9">
-        <v>0</v>
+        <v>12911</v>
       </c>
       <c r="D7" s="9">
-        <v>0</v>
+        <f>SUM(C7,-C5)</f>
+        <v>372</v>
       </c>
       <c r="E7" s="3">
         <v>2.4300000000000002</v>
       </c>
       <c r="F7" s="6">
-        <f>D7*E7</f>
-        <v>0</v>
+        <f>PRODUCT(D7,E7)</f>
+        <v>903.96</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
@@ -714,20 +717,22 @@
         <v>0</v>
       </c>
       <c r="C8" s="9">
-        <v>0</v>
+        <v>32086</v>
       </c>
       <c r="D8" s="9">
-        <v>0</v>
+        <f>SUM(C8,-C6)</f>
+        <v>695</v>
       </c>
       <c r="E8" s="8">
         <v>4.49</v>
       </c>
       <c r="F8" s="6">
-        <v>3907.87</v>
+        <f>PRODUCT(L26+D8,E8)</f>
+        <v>3120.55</v>
       </c>
       <c r="G8" s="10">
         <f>SUM(F8,F9)</f>
-        <v>3907.87</v>
+        <v>3907.8700000000003</v>
       </c>
       <c r="H8" s="10">
         <v>3907.87</v>
@@ -739,15 +744,19 @@
         <v>1</v>
       </c>
       <c r="C9" s="9">
-        <v>0</v>
+        <v>13235</v>
       </c>
       <c r="D9" s="9">
-        <v>0</v>
+        <f>SUM(C9,-C7)</f>
+        <v>324</v>
       </c>
       <c r="E9" s="3">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F9" s="6"/>
+      <c r="F9" s="6">
+        <f>PRODUCT(L26+D9,E9)</f>
+        <v>787.32</v>
+      </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
     </row>
@@ -834,7 +843,7 @@
       </c>
       <c r="G13" s="10">
         <f>SUM(G2:G12)</f>
-        <v>19606.93</v>
+        <v>19531.41</v>
       </c>
       <c r="H13" s="10">
         <f>SUM(H2:H12)</f>
@@ -853,7 +862,7 @@
       <c r="G14" s="10"/>
       <c r="H14" s="10">
         <f>SUM(H13,-G13)</f>
-        <v>-1620.3300000000017</v>
+        <v>-1544.8100000000013</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/180ee.xlsx
+++ b/sputnik/personal/ee/180ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="16">
   <si>
     <t>Т1</t>
   </si>
@@ -528,10 +528,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26:J31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -833,35 +833,85 @@
       <c r="H12" s="10"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2" t="s">
+      <c r="A13" s="4">
+        <v>44330</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="9">
+        <v>0</v>
+      </c>
+      <c r="D13" s="9">
+        <f>SUM(C13,-C11)</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="8">
+        <v>4.71</v>
+      </c>
+      <c r="F13" s="6">
+        <f>PRODUCT(L31+D13,E13)</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="10">
+        <f>SUM(F13,F14)</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="10">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="9">
+        <v>0</v>
+      </c>
+      <c r="D14" s="9">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F14" s="6">
+        <f>PRODUCT(L31+D14,E14)</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G15" s="10">
         <f>SUM(G2:G12)</f>
         <v>19531.41</v>
       </c>
-      <c r="H13" s="10">
+      <c r="H15" s="10">
         <f>SUM(H2:H12)</f>
         <v>17986.599999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10">
-        <f>SUM(H13,-G13)</f>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10">
+        <f>SUM(H15,-G15)</f>
         <v>-1544.8100000000013</v>
       </c>
     </row>

--- a/sputnik/personal/ee/180ee.xlsx
+++ b/sputnik/personal/ee/180ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="16">
   <si>
     <t>Т1</t>
   </si>
@@ -174,7 +174,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -221,6 +221,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -528,10 +529,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -883,42 +884,140 @@
       <c r="H14" s="10"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2" t="s">
-        <v>14</v>
+      <c r="A15" s="18">
+        <v>44339</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2">
+        <v>39529</v>
+      </c>
+      <c r="D15" s="2">
+        <f>SUM(C15,-C6)</f>
+        <v>8138</v>
+      </c>
+      <c r="E15" s="8">
+        <v>4.71</v>
+      </c>
+      <c r="F15" s="6">
+        <f>PRODUCT(L33+D15,E15)</f>
+        <v>38329.980000000003</v>
       </c>
       <c r="G15" s="10">
-        <f>SUM(G2:G12)</f>
-        <v>19531.41</v>
-      </c>
-      <c r="H15" s="10">
-        <f>SUM(H2:H12)</f>
-        <v>17986.599999999999</v>
-      </c>
+        <f>SUM(F15,F16)</f>
+        <v>48823.23</v>
+      </c>
+      <c r="H15" s="10"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2" t="s">
+      <c r="B16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2">
+        <v>17026</v>
+      </c>
+      <c r="D16" s="2">
+        <f>SUM(C16,-C7)</f>
+        <v>4115</v>
+      </c>
+      <c r="E16" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F16" s="6">
+        <f>PRODUCT(L33+D16,E16)</f>
+        <v>10493.25</v>
+      </c>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="18">
+        <v>44407</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="2">
+        <v>39529</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
+      <c r="E17" s="8">
+        <v>4.96</v>
+      </c>
+      <c r="F17" s="6">
+        <f>PRODUCT(L35+D17,E17)</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="10">
+        <f>SUM(F17,F18)</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="10">
+        <v>9974.08</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2">
+        <v>17026</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3">
+        <v>2.68</v>
+      </c>
+      <c r="F18" s="6">
+        <f>PRODUCT(L35+D18,E18)</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="18"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="10">
+        <f>SUM(G2:G18)</f>
+        <v>68354.64</v>
+      </c>
+      <c r="H19" s="10">
+        <f>SUM(H2:H18)</f>
+        <v>42960.68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10">
-        <f>SUM(H15,-G15)</f>
-        <v>-1544.8100000000013</v>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10">
+        <f>SUM(H19,-G19)</f>
+        <v>-25393.96</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/sputnik/personal/ee/180ee.xlsx
+++ b/sputnik/personal/ee/180ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="17">
   <si>
     <t>Т1</t>
   </si>
@@ -60,10 +60,13 @@
     <t>Начислены пени с 29.12.2018  по 17.05.2019 -138 дн. ( 8085,55 х 98 х0,1%=792,38)</t>
   </si>
   <si>
-    <t>итого с пенями</t>
-  </si>
-  <si>
-    <t>к доплате</t>
+    <t>Начислены пени с 02.12.2019 по 14.05.2021 -527 дн. (15000,00 х 487 х0,1%=7305,00)</t>
+  </si>
+  <si>
+    <t>Начислены пени с 02.12.2019 по 30.07.2021 -604 дн. (9974,08 х564 х0,1%=5625,38)</t>
+  </si>
+  <si>
+    <t>Начислены пени с 02.12.2019 по 26.08.2021 -630 дн. (5000,00 х590 х0,1%=2950,00)</t>
   </si>
 </sst>
 </file>
@@ -174,7 +177,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -222,6 +225,13 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -529,10 +539,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -677,7 +687,7 @@
         <v>4.49</v>
       </c>
       <c r="F6" s="6">
-        <f>PRODUCT(L25+D6,E6)</f>
+        <f>PRODUCT(L24+D6,E6)</f>
         <v>5073.7</v>
       </c>
       <c r="G6" s="10">
@@ -728,7 +738,7 @@
         <v>4.49</v>
       </c>
       <c r="F8" s="6">
-        <f>PRODUCT(L26+D8,E8)</f>
+        <f>PRODUCT(L25+D8,E8)</f>
         <v>3120.55</v>
       </c>
       <c r="G8" s="10">
@@ -755,7 +765,7 @@
         <v>2.4300000000000002</v>
       </c>
       <c r="F9" s="6">
-        <f>PRODUCT(L26+D9,E9)</f>
+        <f>PRODUCT(L25+D9,E9)</f>
         <v>787.32</v>
       </c>
       <c r="G9" s="10"/>
@@ -763,7 +773,7 @@
     </row>
     <row r="10" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <v>43463</v>
+        <v>43828</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>0</v>
@@ -851,7 +861,7 @@
         <v>4.71</v>
       </c>
       <c r="F13" s="6">
-        <f>PRODUCT(L31+D13,E13)</f>
+        <f>PRODUCT(L30+D13,E13)</f>
         <v>0</v>
       </c>
       <c r="G13" s="10">
@@ -877,147 +887,315 @@
         <v>2.5499999999999998</v>
       </c>
       <c r="F14" s="6">
-        <f>PRODUCT(L31+D14,E14)</f>
+        <f>PRODUCT(L30+D14,E14)</f>
         <v>0</v>
       </c>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="18">
+    <row r="15" spans="1:8" ht="48" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>44330</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="12">
+        <v>0</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="12">
+        <v>0</v>
+      </c>
+      <c r="F15" s="20">
+        <v>7305</v>
+      </c>
+      <c r="G15" s="21">
+        <v>7305</v>
+      </c>
+      <c r="H15" s="10"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="18">
         <v>44339</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="2">
+      <c r="B16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2">
         <v>39529</v>
       </c>
-      <c r="D15" s="2">
-        <f>SUM(C15,-C6)</f>
-        <v>8138</v>
-      </c>
-      <c r="E15" s="8">
+      <c r="D16" s="2">
+        <f>SUM(C16,-C8)</f>
+        <v>7443</v>
+      </c>
+      <c r="E16" s="8">
         <v>4.71</v>
       </c>
-      <c r="F15" s="6">
-        <f>PRODUCT(L33+D15,E15)</f>
-        <v>38329.980000000003</v>
-      </c>
-      <c r="G15" s="10">
-        <f>SUM(F15,F16)</f>
-        <v>48823.23</v>
-      </c>
-      <c r="H15" s="10"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3" t="s">
+      <c r="F16" s="6">
+        <f>PRODUCT(L34+D16,E16)</f>
+        <v>35056.53</v>
+      </c>
+      <c r="G16" s="10">
+        <f>SUM(F16,F17)</f>
+        <v>44723.58</v>
+      </c>
+      <c r="H16" s="10"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C17" s="2">
         <v>17026</v>
       </c>
-      <c r="D16" s="2">
-        <f>SUM(C16,-C7)</f>
-        <v>4115</v>
-      </c>
-      <c r="E16" s="3">
+      <c r="D17" s="2">
+        <f>SUM(C17,-C9)</f>
+        <v>3791</v>
+      </c>
+      <c r="E17" s="3">
         <v>2.5499999999999998</v>
       </c>
-      <c r="F16" s="6">
-        <f>PRODUCT(L33+D16,E16)</f>
-        <v>10493.25</v>
-      </c>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="18">
+      <c r="F17" s="6">
+        <f>PRODUCT(L34+D17,E17)</f>
+        <v>9667.0499999999993</v>
+      </c>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="18">
         <v>44407</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="2">
+      <c r="B18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2">
         <v>39529</v>
       </c>
-      <c r="D17" s="2">
-        <v>0</v>
-      </c>
-      <c r="E17" s="8">
+      <c r="D18" s="2">
+        <f>SUM(C18,-C16)</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="8">
         <v>4.96</v>
       </c>
-      <c r="F17" s="6">
-        <f>PRODUCT(L35+D17,E17)</f>
-        <v>0</v>
-      </c>
-      <c r="G17" s="10">
-        <f>SUM(F17,F18)</f>
-        <v>0</v>
-      </c>
-      <c r="H17" s="10">
+      <c r="F18" s="6">
+        <f>PRODUCT(L36+D18,E18)</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="10">
+        <f>SUM(F18,F19)</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="10">
         <v>9974.08</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="3" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C19" s="2">
         <v>17026</v>
       </c>
-      <c r="D18" s="2">
-        <v>0</v>
-      </c>
-      <c r="E18" s="3">
+      <c r="D19" s="2">
+        <f>SUM(C19,-C17)</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="3">
         <v>2.68</v>
       </c>
-      <c r="F18" s="6">
-        <f>PRODUCT(L35+D18,E18)</f>
-        <v>0</v>
-      </c>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="18"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" s="10">
-        <f>SUM(G2:G18)</f>
-        <v>68354.64</v>
-      </c>
-      <c r="H19" s="10">
-        <f>SUM(H2:H18)</f>
-        <v>42960.68</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2" t="s">
+      <c r="F19" s="6">
+        <f>PRODUCT(L37+D19,E19)</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+    </row>
+    <row r="20" spans="1:8" ht="48" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>44407</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="12">
+        <v>0</v>
+      </c>
+      <c r="D20" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10">
-        <f>SUM(H19,-G19)</f>
-        <v>-25393.96</v>
+      <c r="E20" s="12">
+        <v>0</v>
+      </c>
+      <c r="F20" s="20">
+        <v>5625.38</v>
+      </c>
+      <c r="G20" s="21">
+        <v>5625.38</v>
+      </c>
+      <c r="H20" s="10"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="18">
+        <v>44422</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="2">
+        <v>40415</v>
+      </c>
+      <c r="D21" s="2">
+        <f>SUM(C21,-C18)</f>
+        <v>886</v>
+      </c>
+      <c r="E21" s="8">
+        <v>4.96</v>
+      </c>
+      <c r="F21" s="6">
+        <f>PRODUCT(L38+D21,E21)</f>
+        <v>4394.5600000000004</v>
+      </c>
+      <c r="G21" s="10">
+        <f>SUM(F21,F22)</f>
+        <v>5370.0800000000008</v>
+      </c>
+      <c r="H21" s="10"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="2">
+        <v>17390</v>
+      </c>
+      <c r="D22" s="2">
+        <f>SUM(C22,-C19)</f>
+        <v>364</v>
+      </c>
+      <c r="E22" s="3">
+        <v>2.68</v>
+      </c>
+      <c r="F22" s="6">
+        <f>PRODUCT(L39+D22,E22)</f>
+        <v>975.5200000000001</v>
+      </c>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="18">
+        <v>44434</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="2">
+        <v>40415</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0</v>
+      </c>
+      <c r="E23" s="8">
+        <v>4.96</v>
+      </c>
+      <c r="F23" s="6">
+        <f>PRODUCT(L40+D23,E23)</f>
+        <v>0</v>
+      </c>
+      <c r="G23" s="10">
+        <f>SUM(F23,F24)</f>
+        <v>0</v>
+      </c>
+      <c r="H23" s="10">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="2">
+        <v>17390</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>2.68</v>
+      </c>
+      <c r="F24" s="6">
+        <f>PRODUCT(L41+D24,E24)</f>
+        <v>0</v>
+      </c>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+    </row>
+    <row r="25" spans="1:8" ht="48" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>44434</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="12">
+        <v>0</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="12">
+        <v>0</v>
+      </c>
+      <c r="F25" s="20">
+        <v>2950</v>
+      </c>
+      <c r="G25" s="21">
+        <v>2950</v>
+      </c>
+      <c r="H25" s="10"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="19"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="10">
+        <f>SUM(G2:G25)</f>
+        <v>85505.450000000012</v>
+      </c>
+      <c r="H26" s="10">
+        <f>SUM(H2:H25)</f>
+        <v>47960.68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="19"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="10">
+        <f>SUM(H26,-G26)</f>
+        <v>-37544.770000000011</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
-  <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="1.299212598425197" right="0.31496062992125984" top="0.35433070866141736" bottom="0.35433070866141736" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="84" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/sputnik/personal/ee/180ee.xlsx
+++ b/sputnik/personal/ee/180ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="16">
   <si>
     <t>Т1</t>
   </si>
@@ -63,10 +63,7 @@
     <t>Начислены пени с 02.12.2019 по 14.05.2021 -527 дн. (15000,00 х 487 х0,1%=7305,00)</t>
   </si>
   <si>
-    <t>Начислены пени с 02.12.2019 по 30.07.2021 -604 дн. (9974,08 х564 х0,1%=5625,38)</t>
-  </si>
-  <si>
-    <t>Начислены пени с 02.12.2019 по 26.08.2021 -630 дн. (5000,00 х590 х0,1%=2950,00)</t>
+    <t>Начислены пени с 14.05.2019 по 30.07.2021 -78 дн. (9974,08 х38 х0,1%=379,02)</t>
   </si>
 </sst>
 </file>
@@ -541,8 +538,8 @@
   </sheetPr>
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1034,10 +1031,10 @@
         <v>0</v>
       </c>
       <c r="F20" s="20">
-        <v>5625.38</v>
+        <v>379.02</v>
       </c>
       <c r="G20" s="21">
-        <v>5625.38</v>
+        <v>379.02</v>
       </c>
       <c r="H20" s="10"/>
     </row>
@@ -1139,28 +1136,14 @@
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
     </row>
-    <row r="25" spans="1:8" ht="48" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
-        <v>44434</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C25" s="12">
-        <v>0</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E25" s="12">
-        <v>0</v>
-      </c>
-      <c r="F25" s="20">
-        <v>2950</v>
-      </c>
-      <c r="G25" s="21">
-        <v>2950</v>
-      </c>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="21"/>
       <c r="H25" s="10"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -1172,7 +1155,7 @@
       <c r="F26" s="19"/>
       <c r="G26" s="10">
         <f>SUM(G2:G25)</f>
-        <v>85505.450000000012</v>
+        <v>77309.090000000011</v>
       </c>
       <c r="H26" s="10">
         <f>SUM(H2:H25)</f>
@@ -1189,13 +1172,13 @@
       <c r="G27" s="2"/>
       <c r="H27" s="10">
         <f>SUM(H26,-G26)</f>
-        <v>-37544.770000000011</v>
+        <v>-29348.410000000011</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="1.299212598425197" right="0.31496062992125984" top="0.35433070866141736" bottom="0.35433070866141736" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="84" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="88" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
